--- a/Vlan címek.xlsx
+++ b/Vlan címek.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\László\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\László\Desktop\Vizsga\Vizsga2022_IRU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD9C4E5-782B-4F4C-9D31-A48E18F21ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC3A8FA-DA02-443A-BB13-028A1E348B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{04D8F51E-EFDF-44D4-852F-243D2895BCC9}"/>
   </bookViews>
@@ -225,7 +225,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -249,182 +249,227 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
+      <left style="medium">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </left>
+      <right style="medium">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </right>
+      <top style="medium">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </left>
+      <right style="medium">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </right>
+      <top style="medium">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </right>
+      <top style="medium">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </left>
+      <right style="medium">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </right>
+      <top style="medium">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -432,8 +477,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -441,14 +488,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -763,10 +812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78625AD1-A073-4BD9-8681-CB9FFA7EAAB1}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,243 +824,243 @@
     <col min="2" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10" t="s">
+      <c r="C1" s="17"/>
+      <c r="D1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
     </row>
-    <row r="2" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="11">
         <v>99</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="12">
         <v>403</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="3">
         <v>80</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="4">
         <v>99</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="4">
         <v>105</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="4">
         <v>120</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="4">
         <v>150</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="4">
         <v>155</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="4">
         <v>205</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="5">
         <v>403</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="8" t="s">
         <v>25</v>
       </c>
       <c r="E8" s="9" t="s">
@@ -1032,11 +1081,10 @@
       <c r="J8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:C1"/>

--- a/Vlan címek.xlsx
+++ b/Vlan címek.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donif\OneDrive\Asztali gép\Git_csoportmunka\Vizsga2022_IR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bendi\Documents\GitHub\Vizsga2022_IRU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42169FF-BEC5-4872-A809-AAE63F57AC86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4531EA-1C98-4D09-8D25-F18E5C0FD674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{04D8F51E-EFDF-44D4-852F-243D2895BCC9}"/>
+    <workbookView xWindow="9864" yWindow="900" windowWidth="30960" windowHeight="12120" xr2:uid="{04D8F51E-EFDF-44D4-852F-243D2895BCC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="87">
   <si>
     <t>Datacenter</t>
   </si>
@@ -53,27 +53,18 @@
     <t>192.168.10.64</t>
   </si>
   <si>
-    <t>192.168.10.80</t>
-  </si>
-  <si>
     <t>192.168.10.96</t>
   </si>
   <si>
     <t>192.168.98.0</t>
   </si>
   <si>
-    <t>192.168.99.8</t>
-  </si>
-  <si>
     <t>192.168.99.0</t>
   </si>
   <si>
     <t>192.168.98.16</t>
   </si>
   <si>
-    <t>/30</t>
-  </si>
-  <si>
     <t>/29</t>
   </si>
   <si>
@@ -83,9 +74,6 @@
     <t>/27</t>
   </si>
   <si>
-    <t>255.255.255.252</t>
-  </si>
-  <si>
     <t>255.255.255.248</t>
   </si>
   <si>
@@ -95,12 +83,6 @@
     <t>192.168.98.17</t>
   </si>
   <si>
-    <t>192.168.98.18</t>
-  </si>
-  <si>
-    <t>192.168.98.19</t>
-  </si>
-  <si>
     <t>192.168.99.1</t>
   </si>
   <si>
@@ -116,18 +98,12 @@
     <t>192.168.10.1</t>
   </si>
   <si>
-    <t>192.168.10.81</t>
-  </si>
-  <si>
     <t>192.168.10.49</t>
   </si>
   <si>
     <t>192.168.10.65</t>
   </si>
   <si>
-    <t>192.168.99.9</t>
-  </si>
-  <si>
     <t>192.168.10.31</t>
   </si>
   <si>
@@ -158,12 +134,6 @@
     <t>192.168.98.14</t>
   </si>
   <si>
-    <t>192.168.10.95</t>
-  </si>
-  <si>
-    <t>192.168.10.94</t>
-  </si>
-  <si>
     <t>192.168.10.126</t>
   </si>
   <si>
@@ -176,12 +146,6 @@
     <t>192.168.99.6</t>
   </si>
   <si>
-    <t>192.168.99.15</t>
-  </si>
-  <si>
-    <t>192.168.99.14</t>
-  </si>
-  <si>
     <t>Név:</t>
   </si>
   <si>
@@ -197,9 +161,6 @@
     <t>BRÓKER</t>
   </si>
   <si>
-    <t>VOICE</t>
-  </si>
-  <si>
     <t>PENZUGY</t>
   </si>
   <si>
@@ -254,18 +215,6 @@
     <t>BANK</t>
   </si>
   <si>
-    <t>172.16.1.0</t>
-  </si>
-  <si>
-    <t>172.16.1.1</t>
-  </si>
-  <si>
-    <t>172.16.2.7</t>
-  </si>
-  <si>
-    <t>172.16.2.6</t>
-  </si>
-  <si>
     <t>Port:</t>
   </si>
   <si>
@@ -281,9 +230,6 @@
     <t>FastEthernet/10</t>
   </si>
   <si>
-    <t>FastEthernet/13-14</t>
-  </si>
-  <si>
     <t>FastEthernet/11</t>
   </si>
   <si>
@@ -330,13 +276,31 @@
   </si>
   <si>
     <t>FastEthernet/1-8</t>
+  </si>
+  <si>
+    <t>192.168.1.0</t>
+  </si>
+  <si>
+    <t>192.168.1.1</t>
+  </si>
+  <si>
+    <t>192.168.1.62</t>
+  </si>
+  <si>
+    <t>192.168.1.63</t>
+  </si>
+  <si>
+    <t>192.168.98.23</t>
+  </si>
+  <si>
+    <t>192.168.98.22</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -352,6 +316,13 @@
       <family val="3"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -639,7 +610,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -654,55 +625,57 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -1020,589 +993,535 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="27" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="27" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" style="1" customWidth="1"/>
     <col min="2" max="16384" width="27" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="7"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="22"/>
+      <c r="C1" s="21"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="B2" s="4">
         <v>99</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="12">
         <v>403</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>89</v>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="24"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="11">
+        <v>80</v>
+      </c>
+      <c r="C13" s="11">
+        <v>99</v>
+      </c>
+      <c r="D13" s="11">
+        <v>105</v>
+      </c>
+      <c r="E13" s="11">
+        <v>120</v>
+      </c>
+      <c r="F13" s="11">
+        <v>155</v>
+      </c>
+      <c r="G13" s="11">
+        <v>205</v>
+      </c>
+      <c r="H13" s="11">
+        <v>77</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="18" t="s">
+      <c r="C18" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="21"/>
+      <c r="D23" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="G25" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="G28" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="7"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13" s="14">
-        <v>80</v>
-      </c>
-      <c r="C13" s="14">
-        <v>99</v>
-      </c>
-      <c r="D13" s="14">
-        <v>105</v>
-      </c>
-      <c r="E13" s="14">
-        <v>120</v>
-      </c>
-      <c r="F13" s="14">
-        <v>150</v>
-      </c>
-      <c r="G13" s="14">
-        <v>155</v>
-      </c>
-      <c r="H13" s="14">
-        <v>205</v>
-      </c>
-      <c r="I13" s="14">
-        <v>403</v>
-      </c>
-      <c r="J13" s="14">
-        <v>77</v>
-      </c>
-      <c r="K13" s="15" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="J14" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="K14" s="18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="I15" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="K15" s="18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="I16" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="J16" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="K16" s="18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="I17" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="J17" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="K17" s="18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J18" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="K18" s="18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="K19" s="18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="H20" s="17" t="s">
+      <c r="G29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H29" s="9" t="s">
         <v>56</v>
-      </c>
-      <c r="I20" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="J20" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="K20" s="18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="H21" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="I21" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="J21" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="K21" s="21" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23" s="7"/>
-      <c r="D23" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1611,8 +1530,9 @@
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="G23:H23"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A12:K12"/>
+    <mergeCell ref="A12:I12"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/Vlan címek.xlsx
+++ b/Vlan címek.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bendi\Documents\GitHub\Vizsga2022_IRU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4531EA-1C98-4D09-8D25-F18E5C0FD674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6A0A90-11F0-4A89-A6AB-72CEC5E06A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9864" yWindow="900" windowWidth="30960" windowHeight="12120" xr2:uid="{04D8F51E-EFDF-44D4-852F-243D2895BCC9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{04D8F51E-EFDF-44D4-852F-243D2895BCC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -665,6 +665,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -674,8 +676,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -1003,11 +1003,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="21"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="23"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
@@ -1110,19 +1110,19 @@
     </row>
     <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="21"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
@@ -1387,20 +1387,20 @@
     </row>
     <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="D23" s="20" t="s">
+      <c r="B23" s="23"/>
+      <c r="D23" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="E23" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="G23" s="20" t="s">
+      <c r="G23" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="H23" s="21" t="s">
+      <c r="H23" s="23" t="s">
         <v>52</v>
       </c>
     </row>

--- a/Vlan címek.xlsx
+++ b/Vlan címek.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bendi\Documents\GitHub\Vizsga2022_IRU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\László\Desktop\Vizsga\Vizsga2022_IRU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6A0A90-11F0-4A89-A6AB-72CEC5E06A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57579D46-E307-4446-A3ED-0DE6D270C4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{04D8F51E-EFDF-44D4-852F-243D2895BCC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{04D8F51E-EFDF-44D4-852F-243D2895BCC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="88">
   <si>
     <t>Datacenter</t>
   </si>
@@ -134,12 +134,6 @@
     <t>192.168.98.14</t>
   </si>
   <si>
-    <t>192.168.10.126</t>
-  </si>
-  <si>
-    <t>192.168.10.127</t>
-  </si>
-  <si>
     <t>192.168.99.7</t>
   </si>
   <si>
@@ -294,6 +288,15 @@
   </si>
   <si>
     <t>192.168.98.22</t>
+  </si>
+  <si>
+    <t>255.255.255.224</t>
+  </si>
+  <si>
+    <t>192.168.10.103</t>
+  </si>
+  <si>
+    <t>192.168.10.102</t>
   </si>
 </sst>
 </file>
@@ -992,26 +995,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78625AD1-A073-4BD9-8681-CB9FFA7EAAB1}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="27" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="27" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" style="1" customWidth="1"/>
     <col min="2" max="16384" width="27" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="23"/>
     </row>
-    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B2" s="4">
         <v>99</v>
@@ -1020,9 +1023,9 @@
         <v>403</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>9</v>
@@ -1031,9 +1034,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>15</v>
@@ -1042,31 +1045,31 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
         <v>73</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
-        <v>75</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1075,9 +1078,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>13</v>
@@ -1086,30 +1089,30 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>62</v>
-      </c>
       <c r="C10" s="15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
         <v>1</v>
       </c>
@@ -1124,9 +1127,9 @@
       <c r="J12" s="20"/>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B13" s="11">
         <v>80</v>
@@ -1150,12 +1153,12 @@
         <v>77</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>6</v>
@@ -1176,15 +1179,15 @@
         <v>5</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>17</v>
@@ -1205,18 +1208,18 @@
         <v>22</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>32</v>
@@ -1234,18 +1237,18 @@
         <v>30</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>31</v>
@@ -1263,18 +1266,18 @@
         <v>29</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>11</v>
@@ -1292,18 +1295,18 @@
         <v>11</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>14</v>
@@ -1312,7 +1315,7 @@
         <v>14</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="F19" s="14" t="s">
         <v>14</v>
@@ -1321,207 +1324,207 @@
         <v>14</v>
       </c>
       <c r="H19" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="I21" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="I19" s="15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="I21" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B23" s="23"/>
       <c r="D23" s="22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E23" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G23" s="22" t="s">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="H23" s="23" t="s">
+      <c r="D28" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H28" s="8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E26" s="8" t="s">
+    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="G26" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+      <c r="G29" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B28" s="8" t="s">
+      <c r="H29" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
